--- a/tests/output/08-borders.xlsx
+++ b/tests/output/08-borders.xlsx
@@ -872,6 +872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -915,6 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -958,6 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -1001,6 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1234,6 +1246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
@@ -1277,6 +1292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
